--- a/AccessibleDashboardData/2021-09-10.xlsx
+++ b/AccessibleDashboardData/2021-09-10.xlsx
@@ -5225,7 +5225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8807,18 +8807,26 @@
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" t="s">
-        <v>258</v>
-      </c>
-      <c r="D257">
-        <v>21</v>
+      <c r="B257">
+        <v>3176127</v>
+      </c>
+      <c r="C257">
+        <v>611093</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="D258">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
         <v>259</v>
       </c>
-      <c r="D258">
+      <c r="D259">
         <v>58332</v>
       </c>
     </row>
@@ -24413,13 +24421,13 @@
         <v>3176127</v>
       </c>
       <c r="C560">
-        <v>19486</v>
+        <v>19050</v>
       </c>
       <c r="D560">
         <v>611093</v>
       </c>
       <c r="E560">
-        <v>4220</v>
+        <v>4195</v>
       </c>
       <c r="G560">
         <v>0</v>
